--- a/use_postlist2/performance_test.xlsx
+++ b/use_postlist2/performance_test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zsh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhangshaohua8\GitProjects\mygit\xapian_leaning\use_postlist2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="320" yWindow="580" windowWidth="24640" windowHeight="12100" tabRatio="500"/>
+    <workbookView xWindow="315" yWindow="585" windowWidth="24645" windowHeight="12105" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>search_use_keymaker</t>
   </si>
@@ -220,6 +220,10 @@
   </si>
   <si>
     <t>20180204, 30millon documents, test on mac</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位: ms</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -284,6 +288,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -552,142 +559,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
+      <c r="A2" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" t="s">
         <v>15</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" t="s">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G7" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>